--- a/hardware/board/kicad/uBike-BoM.xlsx
+++ b/hardware/board/kicad/uBike-BoM.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="v4" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="BOM" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="KiCAD Output" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="217">
   <si>
     <t>uBike v0.4 Bill of Materials</t>
   </si>
@@ -111,7 +112,7 @@
     <t>Your Instructions / Notes</t>
   </si>
   <si>
-    <t>C1, C3, C7, C10</t>
+    <t>C1, C3, C9</t>
   </si>
   <si>
     <t>AVX</t>
@@ -126,7 +127,19 @@
     <t>0805_2012Metric</t>
   </si>
   <si>
-    <t>C2, C4, C8</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>20SVPF120M</t>
+  </si>
+  <si>
+    <t>120uF - Organic Polymer Capacitors 20V, ESR 25mohm</t>
+  </si>
+  <si>
+    <t>C4, C8</t>
   </si>
   <si>
     <t>Murata Electronics</t>
@@ -156,43 +169,25 @@
     <t>0603_1608Metric</t>
   </si>
   <si>
-    <t>C9</t>
+    <t>C7</t>
   </si>
   <si>
-    <t>C0805C103J4GACTU</t>
+    <t>Chemi-Con</t>
   </si>
   <si>
-    <t>10nF - Unpolarized capacitor, 16V, 5%</t>
+    <t>EMVY630ARA221MKE0S</t>
   </si>
   <si>
-    <t>C11</t>
+    <t>220uF - Electrolytic Capacitor, 63 Volt</t>
   </si>
   <si>
-    <t>C0603C220J4GACTU</t>
+    <t>C10</t>
   </si>
   <si>
-    <t>22pF - Unpolarized capacitor, 16V, 5%</t>
+    <t>GRT21BR61E105KE13L</t>
   </si>
   <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>C3216X5R1C336M160AB</t>
-  </si>
-  <si>
-    <t>33uF - Unpolarized capacitor, 16V, 20%</t>
-  </si>
-  <si>
-    <t>C13, C14</t>
-  </si>
-  <si>
-    <t>C1206C225K3PACTU</t>
-  </si>
-  <si>
-    <t>2.2uF - Unpolarized capacitor, 25V, 10%</t>
+    <t>1uF - Unpolarized capacitor, 25V, 10%</t>
   </si>
   <si>
     <t>D1, D4, D6</t>
@@ -229,6 +224,18 @@
   </si>
   <si>
     <t>Light emitting diode (Red)</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>Onsemi</t>
+  </si>
+  <si>
+    <t>SS24FL</t>
+  </si>
+  <si>
+    <t>Schottky Diodes &amp; Rectifiers 40V, 2A SCHOTTKY</t>
   </si>
   <si>
     <t>F1</t>
@@ -318,13 +325,13 @@
     <t>L1</t>
   </si>
   <si>
-    <t>SRR1280A-121K</t>
+    <t>Coilcraft</t>
   </si>
   <si>
-    <t>120uH Shielded Power Inductor with ferrite core</t>
+    <t>MSS1210-683MED</t>
   </si>
   <si>
-    <t>Bourns 5050</t>
+    <t>Power Inductors 68uH Shld 20% 4.3A 84mOhms</t>
   </si>
   <si>
     <t>Q1</t>
@@ -342,31 +349,19 @@
     <t>R1, R2, R3, R6, R7, R8, R20</t>
   </si>
   <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
     <t>ERJ-P06F68R0V</t>
   </si>
   <si>
     <t>Thick Film Resistor – 68 (1/2W)</t>
   </si>
   <si>
-    <t>R4, R12</t>
+    <t>R4</t>
   </si>
   <si>
     <t>ERJ-PA3F1002V</t>
   </si>
   <si>
     <t>Thick Film Resistor – 10k (1/4W)</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>ERJ-PA3F6192V</t>
-  </si>
-  <si>
-    <t>Thick Film Resistor – 61.9k (1/4W)</t>
   </si>
   <si>
     <t>R9, R10</t>
@@ -390,10 +385,13 @@
     <t>R13</t>
   </si>
   <si>
-    <t>Thick Film Resistor – 120 (1/4W)</t>
+    <t>ERJ-PA3F2200V</t>
   </si>
   <si>
-    <t>R14, R15</t>
+    <t>Thick Film Resistor – 220 (1/4W)</t>
+  </si>
+  <si>
+    <t>R14, R15, R21, R22, R23, R24</t>
   </si>
   <si>
     <t>ERJ-PA3F10R0V</t>
@@ -402,31 +400,13 @@
     <t>Thick Film Resistor – 10 (1/4W)</t>
   </si>
   <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>ERJ-PA3F2203V</t>
-  </si>
-  <si>
-    <t>Thick Film Resistor – 220k (1/4W)</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>ERJ-PA3F3002V</t>
-  </si>
-  <si>
-    <t>Thick Film Resistor – 30k (1/4W)</t>
-  </si>
-  <si>
     <t>R18</t>
   </si>
   <si>
-    <t>ERJ-P06F1500V</t>
+    <t>ERJ-PA3F3300V</t>
   </si>
   <si>
-    <t>Thick Film Resistor – 150 (1/2W)</t>
+    <t>Thick Film Resistor – 330 (1/2W)</t>
   </si>
   <si>
     <t>R19</t>
@@ -486,13 +466,13 @@
     <t>U4</t>
   </si>
   <si>
-    <t>TPSM863252RDXR</t>
+    <t>LM2596SX-5.0/NOPB</t>
   </si>
   <si>
-    <t>3-V to 17-V Input, 3-A, Synchronous Buck Module</t>
+    <t>Switching Voltage Regulators 150 KHZ 3A Buck</t>
   </si>
   <si>
-    <t xml:space="preserve">7-QFN-FCMOD </t>
+    <t>TO-263-5</t>
   </si>
   <si>
     <t>X1</t>
@@ -512,12 +492,255 @@
   <si>
     <t>Click for Instructions on How to Create a BOM</t>
   </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>C:\Users\natha\Projects\uBike\hardware\board\kicad\uBike.kicad_sch</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Tool:</t>
+  </si>
+  <si>
+    <t>Eeschema 7.0.9</t>
+  </si>
+  <si>
+    <t>Generator:</t>
+  </si>
+  <si>
+    <t>C:\Program Files\KiCad\7.0\bin\scripting\plugins/bom_csv_grouped_by_value_with_fp.py</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Qnty</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Cmp name</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t>120u</t>
+  </si>
+  <si>
+    <t>libs:16SVF180M</t>
+  </si>
+  <si>
+    <t>Panasonic 120uF 20 V Polymer Aluminium Electrolytic Capacitor C6, OS-CON Series 5000h 6.3 x 5.9mm</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>12p</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>220u</t>
+  </si>
+  <si>
+    <t>libs:CHEMI-KE0</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>libs:SOT95P230X117-3N</t>
+  </si>
+  <si>
+    <t>TVS Diode Dual Bi-Dir 7/12V 30KV SOT23 Bourns CDSOT23-SM712 Dual Bi-Directional TVS Diode, 400W peak, 3-Pin SOT-23</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>libs:SODFL3617X108N</t>
+  </si>
+  <si>
+    <t>ON SEMICONDUCTOR - SS24FL - SCHOTTKY RECT, AEC-Q101, 40V, SOD-123F</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>Polyfuse_Small</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient, small symbol</t>
+  </si>
+  <si>
+    <t>MountingHole</t>
+  </si>
+  <si>
+    <t>MountingHole:MountingHole_3.2mm_M3</t>
+  </si>
+  <si>
+    <t>libs:KMDGX6SBS</t>
+  </si>
+  <si>
+    <t>Circular DIN Connectors 6P R/A FULL SHIELD GOLD PLANTED</t>
+  </si>
+  <si>
+    <t>libs:F31S1A7L111040</t>
+  </si>
+  <si>
+    <t>FFC &amp; FPC Connectors F31S-1A7L1-11040-Flip type</t>
+  </si>
+  <si>
+    <t>libs:KMDGX8SBS</t>
+  </si>
+  <si>
+    <t>Circular DIN Connectors 8P R/A FULL SHIELD GOLD PLATED</t>
+  </si>
+  <si>
+    <t>TC2050-IDC-NL</t>
+  </si>
+  <si>
+    <t>Connector:Tag-Connect_TC2050-IDC-NL_2x05_P1.27mm_Vertical</t>
+  </si>
+  <si>
+    <t>libs:87520-0010BLF</t>
+  </si>
+  <si>
+    <t>USB 2.0, Input Output Connector, USB Type A, Standard, Right Angle, Through Hole, Single Decks, 4 Positions</t>
+  </si>
+  <si>
+    <t>libs:INDPM120120X1020N</t>
+  </si>
+  <si>
+    <t>COILCRAFT - MSS1210-683MED - INDUCTOR, 68UH, 4.3A, 20%, PWR, 4.5MHZ</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t>0.2A Ic, 40V Vce, Small Signal NPN Transistor, SOT-23</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>1k69</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>libs:SOIC127P600X175-8N</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS - SN65HVD08DR - Transceiver, RS485, 1 Driver, 3 V to 5.5 V Supply, SOIC-8</t>
+  </si>
+  <si>
+    <t>LD1117S33TR_SOT223</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>800mA Fixed Low Drop Positive Voltage Regulator, Fixed Output 3.3V, SOT-223</t>
+  </si>
+  <si>
+    <t>MDBT50Q-P1MV2</t>
+  </si>
+  <si>
+    <t>RF_Module:Raytac_MDBT50Q</t>
+  </si>
+  <si>
+    <t>Multiprotocol BLE/ANT/2.4 GHz/802.15.4 Cortex-M4F SoC, nRF52840 module</t>
+  </si>
+  <si>
+    <t>LM2596S-5</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:TO-263-5_TabPin3</t>
+  </si>
+  <si>
+    <t>5V 3A Step-Down Voltage Regulator, TO-263</t>
+  </si>
+  <si>
+    <t>32.768kHz</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss am/pm"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -564,6 +787,11 @@
       <sz val="11.0"/>
       <color rgb="FF800080"/>
       <name val="SimSun"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -612,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -651,6 +879,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,6 +925,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -898,7 +1136,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
-    <col customWidth="1" min="2" max="2" width="24.5"/>
+    <col customWidth="1" min="2" max="2" width="26.25"/>
     <col customWidth="1" min="3" max="3" width="5.25"/>
     <col customWidth="1" min="4" max="4" width="22.13"/>
     <col customWidth="1" min="5" max="5" width="31.63"/>
@@ -1094,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1136,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -1148,7 +1386,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1175,22 +1413,22 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>2.0</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1217,13 +1455,13 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>26</v>
@@ -1232,7 +1470,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1259,22 +1497,22 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>1.0</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1301,22 +1539,22 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
         <v>1.0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1343,22 +1581,22 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1385,22 +1623,22 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1427,22 +1665,22 @@
         <v>9.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7">
         <v>1.0</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1469,22 +1707,22 @@
         <v>10.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7">
         <v>1.0</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1511,22 +1749,22 @@
         <v>11.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7">
         <v>1.0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1553,26 +1791,26 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7">
         <v>4.0</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1597,22 +1835,22 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7">
         <v>1.0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1639,22 +1877,22 @@
         <v>14.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7">
         <v>1.0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1681,22 +1919,22 @@
         <v>15.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7">
         <v>1.0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1723,26 +1961,26 @@
         <v>16.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="7">
         <v>1.0</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1767,22 +2005,22 @@
         <v>17.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="7">
         <v>1.0</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1809,22 +2047,22 @@
         <v>18.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="7">
         <v>1.0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1851,22 +2089,22 @@
         <v>19.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="7">
         <v>1.0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1893,19 +2131,19 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" s="7">
         <v>7.0</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>14</v>
@@ -1935,22 +2173,22 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1977,22 +2215,22 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -2019,22 +2257,22 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2061,22 +2299,22 @@
         <v>24.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" s="7">
         <v>1.0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -2103,27 +2341,25 @@
         <v>25.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="7">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H31" s="8"/>
-      <c r="I31" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="I31" s="7"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2147,22 +2383,22 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C32" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -2189,22 +2425,22 @@
         <v>27.0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C33" s="7">
         <v>1.0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -2231,22 +2467,22 @@
         <v>28.0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" s="7">
         <v>1.0</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>111</v>
+      <c r="D34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>24</v>
+        <v>115</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -2273,22 +2509,22 @@
         <v>29.0</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C35" s="7">
         <v>1.0</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>114</v>
+      <c r="D35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2315,22 +2551,22 @@
         <v>30.0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C36" s="7">
         <v>1.0</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>24</v>
+        <v>124</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -2357,22 +2593,22 @@
         <v>31.0</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C37" s="7">
         <v>1.0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2399,22 +2635,22 @@
         <v>32.0</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C38" s="7">
         <v>1.0</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>128</v>
+      <c r="D38" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1206.0</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -2437,29 +2673,15 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="6">
-        <v>33.0</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2479,29 +2701,15 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="6">
-        <v>34.0</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2521,29 +2729,9 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="6">
-        <v>35.0</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="8">
-        <v>1206.0</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="A41" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2563,15 +2751,15 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2591,37 +2779,37 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
+      <c r="A43" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="10" t="s">
-        <v>142</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2641,15 +2829,15 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2669,26 +2857,32 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="12"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="1"/>
@@ -29850,104 +30044,735 @@
       <c r="Y1016" s="1"/>
       <c r="Z1016" s="1"/>
     </row>
-    <row r="1017" ht="12.75" customHeight="1">
-      <c r="A1017" s="1"/>
-      <c r="B1017" s="1"/>
-      <c r="C1017" s="1"/>
-      <c r="D1017" s="1"/>
-      <c r="E1017" s="1"/>
-      <c r="F1017" s="1"/>
-      <c r="G1017" s="1"/>
-      <c r="H1017" s="1"/>
-      <c r="I1017" s="1"/>
-      <c r="J1017" s="1"/>
-      <c r="K1017" s="1"/>
-      <c r="L1017" s="1"/>
-      <c r="M1017" s="1"/>
-      <c r="N1017" s="1"/>
-      <c r="O1017" s="1"/>
-      <c r="P1017" s="1"/>
-      <c r="Q1017" s="1"/>
-      <c r="R1017" s="1"/>
-      <c r="S1017" s="1"/>
-      <c r="T1017" s="1"/>
-      <c r="U1017" s="1"/>
-      <c r="V1017" s="1"/>
-      <c r="W1017" s="1"/>
-      <c r="X1017" s="1"/>
-      <c r="Y1017" s="1"/>
-      <c r="Z1017" s="1"/>
-    </row>
-    <row r="1018" ht="12.75" customHeight="1">
-      <c r="A1018" s="1"/>
-      <c r="B1018" s="1"/>
-      <c r="C1018" s="1"/>
-      <c r="D1018" s="1"/>
-      <c r="E1018" s="1"/>
-      <c r="F1018" s="1"/>
-      <c r="G1018" s="1"/>
-      <c r="H1018" s="1"/>
-      <c r="I1018" s="1"/>
-      <c r="J1018" s="1"/>
-      <c r="K1018" s="1"/>
-      <c r="L1018" s="1"/>
-      <c r="M1018" s="1"/>
-      <c r="N1018" s="1"/>
-      <c r="O1018" s="1"/>
-      <c r="P1018" s="1"/>
-      <c r="Q1018" s="1"/>
-      <c r="R1018" s="1"/>
-      <c r="S1018" s="1"/>
-      <c r="T1018" s="1"/>
-      <c r="U1018" s="1"/>
-      <c r="V1018" s="1"/>
-      <c r="W1018" s="1"/>
-      <c r="X1018" s="1"/>
-      <c r="Y1018" s="1"/>
-      <c r="Z1018" s="1"/>
-    </row>
-    <row r="1019" ht="12.75" customHeight="1">
-      <c r="A1019" s="1"/>
-      <c r="B1019" s="1"/>
-      <c r="C1019" s="1"/>
-      <c r="D1019" s="1"/>
-      <c r="E1019" s="1"/>
-      <c r="F1019" s="1"/>
-      <c r="G1019" s="1"/>
-      <c r="H1019" s="1"/>
-      <c r="I1019" s="1"/>
-      <c r="J1019" s="1"/>
-      <c r="K1019" s="1"/>
-      <c r="L1019" s="1"/>
-      <c r="M1019" s="1"/>
-      <c r="N1019" s="1"/>
-      <c r="O1019" s="1"/>
-      <c r="P1019" s="1"/>
-      <c r="Q1019" s="1"/>
-      <c r="R1019" s="1"/>
-      <c r="S1019" s="1"/>
-      <c r="T1019" s="1"/>
-      <c r="U1019" s="1"/>
-      <c r="V1019" s="1"/>
-      <c r="W1019" s="1"/>
-      <c r="X1019" s="1"/>
-      <c r="Y1019" s="1"/>
-      <c r="Z1019" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="D2:F4"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A43:I43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A44"/>
-    <hyperlink r:id="rId2" ref="A46"/>
+    <hyperlink r:id="rId1" ref="A41"/>
+    <hyperlink r:id="rId2" ref="A43"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45333.73768518519</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="13">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>68.0</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="13">
+        <v>250.0</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="C31" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="13">
+        <v>330.0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>150.0</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>